--- a/CSCL_1995_fullcopy.xlsx
+++ b/CSCL_1995_fullcopy.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyimin/PycharmProjects/plugins-quickstart/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D849FE41-68B0-5443-BBDC-D2716853AE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -22,9 +28,6 @@
     <t>collection</t>
   </si>
   <si>
-    <t>dc.contributor.author[]</t>
-  </si>
-  <si>
     <t>dc.date.accessioned</t>
   </si>
   <si>
@@ -46,9 +49,6 @@
     <t>dc.identifier.citation[en_US]</t>
   </si>
   <si>
-    <t>dc.identifier.uri</t>
-  </si>
-  <si>
     <t>dc.identifier.uri[]</t>
   </si>
   <si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>dc.type[en_US]</t>
-  </si>
-  <si>
-    <t>content</t>
   </si>
   <si>
     <t>1/4153</t>
@@ -2353,13 +2350,22 @@
   </si>
   <si>
     <t>Refining Knowledge in a Virtual Community: A Case-Based Collaborative Project for Preservice Teachers Yong Zhao1 and Keith Campbell2 1Willamette University 2Linfield College Abstract familiar and comfortable with technology so that they This paper examines issues of integrating technology can focus more on the possibilities of the technology into teacher education. By looking at a case-based pro rather than being inhibited by their anxiety from explo ject designed to help preservice teachers at two United ration of its potential. States higher learning institutions to examine and re In light of the above considerations, we designed a fine their beliefs about teaching and learning through case-based collaborative activity that is intended to help collaboration via electronic mail, the study attempted teacher education students: (1) refine their beliefs about to investigate how computer networks can be effec learning and teaching; (2) experience a collaborative and tively used to enhance constructivist learning. Major constructivist learning project; (3) acquire skills with findings include: (1) case-based projects promoted criti computer networking technology; and (4) develop a cal thinking and knowledge revision; (2) collaborative positive attitude toward medium-mediated communica thinking and critiquing were affected by many factors tion. technology was only one of them; and (3) technology was more effectively learned when embedded in content based projects. 2. Edpsycommunity: The Project Keywords - computer network, teacher beliefs, 2.1. Participants teacher education. Participants were 68 teacher education students at two United States higher education institutions. One is a 1. Introduction public research-oriented midwestern university while Technology, particularly telecomputing technology, the other is a private four-year teaching-centered liberal has been praised for its potential to facilitate collabora arts college in the Northwest. Overall about 30 percent tive learning activities [4, 6]. In a project utilizirtg of the students had experience with email prior to the computer networks to provide "teacher education stu project. Most had used computers for word processing. dents with hands-on opportunities to experience collab About 5 percent of the students had access to the Inter orative, constructive learning," [2, p. 149], the Teach net at home. The rest had to go to a computer lab in ing Teleapprenticeships (TTa) team found computer order to use email and other network related tasks. networks have several advantages: (1) time flexibility; (2) distance flexibility; and (3) immediate feedback. 2.2. Procedures Additionally, Zhao [8], suggested that information on The project lasted one semester. Initially, the partici computer networks is less authoritative because it is pants were asked to write five essays analyzing a class easier to create and pub1ish, thus making it easier to room case from different perspectives. For the first reveal the inadequacies of one's knowledge. analysis, the participants were asked to analyze the case However technology, in and of itself, contains nei and provide a hypothetical action plan to cope with the ther pedagogical nor content bias [3]. For instance the problem situation based on their experiences and be computer network can be used to transmit traditional liefs. This was intended as a vehicle for them to reveal instructional packages or used to promote cooperative their present beliefs. The second analysis asked the learning. To use technology to support constructivist participants to provide an analysis and action plan for learning, the teacher must understand the precepts of the same case using a Behaviorist perspective. The constructivism. It is also necessary for teachers to be third one required analysis from a Cognitive perspec- CSCL '95 Proceedings 402 October 1995 tive. The fourth one asked the participants to analyze Table 1. Distribution of Case Analyses. the case from multiple motivational theories. The fi nal essay requested students to again provide an analy Case Total Basis of Beliefs Teaching sis from a revised perspective of their own. #Halfway through the semester following comple Approach tion of the second case analysis, we realized that theparticipants were not taking advantage of the systemExpe- Theory Beha- Cog-hu-riencevioralmanistic and collaborating as much as we had expected. We 1 51 46 5 48 3 asked the participants to reflect upon the experience and 2 48 43 5 48 0 solicited suggestions using the weekly email processing journal mechanism.Based on the feedback, we3S) 11 33 0 S) made the following adjustments: (1) split the large group into eight groups of 10 to 12 people equally divided between students from each section at Linfieldand the section at UIUC; (2) gave longer time-gaps betweenassignmentinstructionsandassignmentduedates; and (3) discussed the importance of the experience. As a result of this change, only three case analyses were completed.The participants noted their changes of beliefs intheir process journals.Almost every participant reported in their final process journals that as a result ofthe class, particularly the case-based project, they willteach differently.More tellingly, students began tothink and discuss theories. Technology or The Project: What Made the Dif 3. Results ference?Faced with these results, we asked ourselves the ques Based on the 406 messages exchanged among the stu tion: Would students have changed their beliefs without dents during the project, students' weekly process journals (726 total), and interviews with six selected particusing the technology? The answer is yes because:First,althoughwehadexpectedthatthe ipants, we have the following findings to report. The participants would make use of the network to findings are organized around each of the four goals weexpected to achieve.exchange ideas before they wrote up their analyses,the amount of exchange among the participants over the network was minimal. For the first two case 3.1. Goal One: Help Students Refine Their analyses, every student posted their final drafts to the Beliefs About Learning and TeachingTo find out to what degree this goal was met, we categorizedparticipants'caseanalysesintofourgroupswhole group.No single message was posted priortotheirpostingofthefinalcopy,althoughtherewere seven messages commenting on the second case along two dimensions: (1) basis of beliefs and (2) analysis immediately after the message was posted. teaching approaches. After reading all the messages, After getting an unsatisfactory grade, one participant we found that the participants generally based theiranalysis on two sources: their own learning experiencespostedhisrevisionofthesecondanalysisto thegroup and solicited comments and suggestions before or a known theory. Therefore we first coded the mes he turned it in for regrading. No responses were sages into two groups: Experience-based and Theory recorded on the network, and it is not known if he based. The second dimension was about the approach received any comments privately. Basically the first each student would take to teach the first class. Twodistinguishable types were identified: Quasi-Behavioraltwo case analysis were independently completed byeach individual.The email only served as a bulletin and Cognitive-Humanistic. The coding was first completed independently by the two researchers.They thenexchanged the results through email.When there was adisagreement, the two researchers discussed (over email)boardwheretheparticipantspostedtheirfinalproducts.Thetechnologydidnotmakeabigdifference in the quality of the analyses.Second, even though there was a tremen and reached an agreement. Table 1 summarizes the dous increase in the number of messages exchanged analysis of the messages. among the participants before they began to write As indicated in Table 1, Goal One was achieved forthe most part.From the first to the last case analyses,the third analysis, it is not obvious if that exchangehadanyimpactonindividualanalysis.As we observed a clear shift of beliefs about teaching and mentioned earlier, due to the lack of collaboration learning. While the beliefs as revealed in the first caseanalysis reflect the students' own learning experienceduring the first half of the semester, we made twostructuralchanges:breakingtheparticipantsinto and a disposition toward teacher-centered and quasi-behavioral (assertive discipline type) approaches, beliefsrevealed in the last case are more theoretically-based andsmallergroupsandallowingmoretimebetweenassignments.Evidentlythechangesgreatlyfacilitated the collaboration, at least in terms of the cognitively-oriented. number of messages exchanged (from O to 139). However, a closer look at the content of these CSCL '95 Proceedings 403 October 1995 messages suggests that most (87%) of these project, in the first two months of the project, the par messages were more confirming than challenging to ticipants experienced a tremendous amount of anxiety the original ideas posted. and frustration with email. Since this was the first In summary, the result that the participants time that many of the participants used email, they had beliefs about teaching and learning, and their way of little knowledge about how the system works. Thus expressing that changed during the project was pri when a problem occurred, they made the wrong inter marily due to the case-based nature of the project in pretation and started to panic. For example, because at stead of the collaborative aspect of the project. In one time one participant's mailbox exceeded quota, ev other words, the same results could have achieved eryone who sent a message to the list at that time re without the use of the technology as a medium for ceived an error message from the mail server saying collaboration. that the message "was not deliverable." While the error message explained clearly that the message was not de 3.2. Goal Two: Provide the Participants a liverable to one person and that it was sent successfully Collaborative and Constructivist Learning to everyone else, most participants interpreted it as the Experience message had not been sent to anyone. So they started Apparently this goal was only half successful. As to either blame themselves for not being skillful or the pointed out in the previous section, the collaborative computer for being so "stupid." One participant sent aspect of the project was not very successful. While out five self introductions, while blaming himself for the project took the form of collaboration, it was more not being smart enough to know what to do. But his of an individual process. However, the project provided messages were successfully received by the list. the participants an opportunity to experience Construc "Not sure about the email thing" was also one of tivist learning. In this project, the participants were the most often cited reasons for the lack of collabora guided through a typical constructivist process of learn tion in the participants' process journals. Over half of ing. First, the tasks in the project were authentic in the participants made statements similar to the follow that it acknowledged learners' ownership of learning; it ing: was project-based; and it fostered multiple perspectives [l]. Second, it started from the learner's prior experi I really think that a lot of people are still ence and existent knowledge. Third, it encouraged the "computer phobic". In speaking from ex participants to construct knowledge instead of memo perience, I can honestly say that I felt over rizing information. whelmed with all of this e-mail stuff that we had to do. Why the lack of collaboration? The failure of the collaboration aspect of the project re Collaborating electronically also meant for some sulted from a combination of several factors: some or people a change in their way of composing. Some par ganizational, some technical, and some epistemologi ticipants were not yet used to composing directly on a cal. computer. They first wrote on paper and then typed into a computer. This might have influenced the pro The belief in authority or trying to be "co"ect" ject as well. prohibited collaboration. When asked to comment in their process journals about The large group was another factor that inhibited the reasons for such limited collaboration over the net students from collaborating. work in the first half of the project, many participants One mistake we made in terms of design was begin reported they were afraid that what they said might be ning the project by putting all students in a group of wrong. Most of the participants had not been prepared over sixty people from two different institutions. Ini to treat knowledge as an object that can be criticized, tially we made that decision based on two considera modified, compared, and regarded from different perspec tions. First, most professional listserv groups have tives. Instead they subjectify knowledge, treating it as many more members than 60. Since one of our goals part of them. Therefore criticizing one's knowledge was to introduce the participants to the utilization of was considered equivalent to a value judgment about technology in education, we thought it would be a the person. good way to help them develop the skills to cope with large number of email messages, a situation likely to Unfamiliarity with the technology was another be encountered when subscribing to any of the thou factor that negatively affected collaboration. sands of professional mailing lists. Second, we While we had expected that the using email would thought having a large group would produce more di bring the convenience needed for frequent communica versity of ideas and thus evoke better discussions. Evi tion in this project, we completely underestimated the dently our assumptions were wrong. difficulties of using the technology. Although we pro After we put the participants in smaller groups, vided training before and technical assistance during the there was much more discussion and collaboration. CSCL '95 Proceedings 404 October 1995 Students reported that they felt much more comfortable der to make use of it in their classrooms, but a prob posting ideas and critiquing others when they "know lem remains in how to deliver that knowledge. This the names of the group." project provides at least one alternative. Instead of To summarize, even though the project failed to teaching technology, we gave the students a reason to provide the participants the opportunity of a collabora use it. To use it was to learn it. tive learning experience, they did witness how a col This, however, does not mean that they can learn laborative project could be organized and then adjusted automatically or easily. During this project we pro when it did not work. They also experienced, as ex vided training at the beginning and on-going support pected, constructivist learning. during the project. We did not attempt to teach them everything at once, rather we provided resources when 3.3. Goal Three: Help the Participants De ever they needed in a supportive atmosphere. velop Skills With Technology and Goal Four: Help the Participants Develop a References Positive Attitude Toward Medium-Mediated 1. Honebein, P. C., Duffy, T. M., and Fishman, B. Commu nication. J., (1993). Constructivism and the design of These two goals are closely related. We found that the learning environments: Context and authentic ac more skillful the participants became with the technol tivities for learning. (pp. 87-108). In T. M. ogy they more positive they felt about email commu Duffy, L. Lowyck, &amp; D. H. Jonassen(Eds.) De nication. These two goals are thus discussed together.In general, these two goals were achieved. As a result of this project, all participants can use email forcommunication.Although proficiency may vary fromindividual to individual, all participants have acquired atleast the basic knowledge and skills to use one or another application program to send and receive electronicmail.Toward the end of the project, the number ofmessages exchanged over the network increased dramatically. While this increase resulted from a combinationsigning Environments for constructive learning.Berlin: Springer-Verlag.2.Levin,J.,Waugh,M.,Brown,D,&amp;Clift,R.(1994). Teaching Teleapprenticeships: A new organizational framework for improving teacher education using electronic networks.Machine-mediated Learning. 4(2 &amp; 3), 149-161.3.Means,B. (1994).(Ed.). Technology and educational reform: The reality behind the promise. of factors, familiarity with technology was certainly San Francisco: Jossey-Bass Publishers. among the primary ones. 4. Newman, D. (1994). Computer networks: Op Another indication is that after the participants portunities or obstacles? In B. Means (Ed.) were put into small groups, they had to create their Technology and educational reform: The reality subgroup list, a non-trivial task for beginners. Except behind the promise. pp. 57-80. San Francisco: for two, all did so successfully. When one group mis Jossey-Bass Publishers. spelled one instructor's email address, their messages 5. Office of Technology Assessment (1995), were bounced back. Unlike earlier, not only did they Teacher and technology: Making the connection. not panic, but also successfully forwarded the message OTA-EHR-616. Washington DC: U. S. to the instructor without resending the messages to the Congress. whole group. 6. Waugh, M. L., Levin, J. A., &amp; Smith, K. Participants unanimously reported in their process (1994). Network-based instructional interactions, journals that one of the biggest achievements for them Part 2: Interpersonal strategies. The Computing was that they learned "how to do email" or advanced Teacher, 21(6), 48-50. their skills with the Internet. One student commented: 7. Waugh, M. L., Levin, J. A., &amp; Smith, K. (1994). Organizing electronic network-based in E-mail was very helpful. At first I hated structional interactions: Successful strategies and the idea, and I don't know if I have gotten tactics, Part 1. The Computing Teacher, 21(5), over my fear of not having a hard copy in 21-22. hand of things, but I sure don't have a fear 8. Zhao, Y. (1995). From the technology of teach of using e-mail anymore. I learned how tokeep my mailbox clean.I learned how tousepine.AndnowIknowhowtosenddocuments through pine.ing to the technology of learning: Create a virtual community of learners.Paper presented atEdMedia'95, Graz, Austria, June, 1995. A reason to use technology is perhaps the mostimportant factor contributing to improved skill.A recent report by the Office of Technology Assessment[5]onTeacherandTechnologysuggestthatteachers need more knowledge about technology in or-Authors'AddressesYongZhao:LanguageLearningCenter,WillametteUniversity,900StateSt.Salem,OR,97301(yzhao@willamette.edu); Keith Campbell: EducationDepartment,LinfieldCollege,900SBakerSt.,McMinnville, OR, 97128 (kcampb@linfield.edu). CSCL '95 Proceedings 405 October 1995</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>uri</t>
+  </si>
+  <si>
+    <t>text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2435,13 +2441,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2479,7 +2493,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2513,6 +2527,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2547,9 +2562,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2722,14 +2738,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2737,4464 +2755,4464 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>19951</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="M2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="P2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="Q2" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R2" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>19952</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="M3" t="s">
+        <v>495</v>
+      </c>
+      <c r="N3" t="s">
+        <v>496</v>
+      </c>
+      <c r="O3" t="s">
         <v>498</v>
       </c>
-      <c r="N3" t="s">
-        <v>499</v>
-      </c>
-      <c r="O3" t="s">
-        <v>501</v>
-      </c>
       <c r="P3" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="Q3" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R3" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>19953</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H4" t="s">
+        <v>190</v>
+      </c>
+      <c r="I4" t="s">
         <v>193</v>
       </c>
-      <c r="I4" t="s">
-        <v>196</v>
-      </c>
       <c r="J4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="M4" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N4" t="s">
+        <v>496</v>
+      </c>
+      <c r="O4" t="s">
         <v>499</v>
       </c>
-      <c r="O4" t="s">
-        <v>502</v>
-      </c>
       <c r="P4" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="Q4" t="s">
+        <v>649</v>
+      </c>
+      <c r="R4" t="s">
         <v>652</v>
       </c>
-      <c r="R4" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>19954</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="M5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O5" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="P5" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="Q5" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R5" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>19955</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="M6" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N6" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O6" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="P6" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="Q6" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R6" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>19956</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="M7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="P7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="Q7" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R7" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>19957</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="M8" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N8" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O8" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="P8" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="Q8" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R8" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>19958</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M9" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N9" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O9" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="P9" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="Q9" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R9" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>19959</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J10" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M10" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N10" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="P10" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="Q10" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R10" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>199510</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J11" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="M11" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N11" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O11" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="P11" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="Q11" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R11" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>199511</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M12" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N12" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O12" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="P12" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="Q12" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R12" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>199512</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I13" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="M13" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N13" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O13" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="P13" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="Q13" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R13" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>199513</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H14" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M14" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N14" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O14" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="P14" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="Q14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R14" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>199514</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J15" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="M15" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N15" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O15" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="P15" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="Q15" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R15" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>199515</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H16" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J16" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="M16" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N16" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O16" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P16" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="Q16" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R16" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>199516</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H17" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I17" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J17" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="M17" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N17" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O17" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="P17" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="Q17" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R17" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>199517</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I18" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J18" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="M18" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N18" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O18" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="P18" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="Q18" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R18" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>199518</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H19" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I19" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J19" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="M19" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N19" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O19" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="P19" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="Q19" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R19" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>199519</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I20" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J20" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="M20" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N20" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O20" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="P20" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="Q20" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R20" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>199520</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G21" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H21" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I21" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J21" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="M21" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N21" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O21" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="P21" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="Q21" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R21" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>199521</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G22" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H22" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I22" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J22" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="M22" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N22" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O22" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="P22" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="Q22" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R22" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>199522</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H23" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I23" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="J23" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="M23" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N23" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O23" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="P23" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="Q23" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R23" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>199523</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G24" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H24" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I24" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J24" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="M24" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N24" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O24" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="P24" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="Q24" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R24" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>199524</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H25" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J25" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="M25" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N25" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O25" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P25" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="Q25" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R25" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>199525</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G26" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H26" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J26" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M26" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N26" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O26" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="P26" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="Q26" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R26" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>199526</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E27" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G27" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H27" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I27" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J27" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="M27" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N27" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O27" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="P27" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="Q27" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R27" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>199527</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E28" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G28" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H28" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I28" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J28" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="M28" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N28" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O28" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="P28" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="Q28" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R28" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>199528</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E29" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G29" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H29" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I29" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J29" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M29" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N29" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O29" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="P29" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="Q29" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R29" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>199529</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E30" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F30" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G30" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H30" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I30" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J30" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="M30" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N30" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O30" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="P30" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="Q30" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R30" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>199530</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E31" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F31" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G31" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H31" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I31" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J31" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="M31" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N31" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O31" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="P31" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="Q31" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R31" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>199531</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E32" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F32" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G32" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H32" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I32" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J32" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="M32" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N32" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O32" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="P32" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="Q32" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R32" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>199532</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E33" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F33" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G33" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H33" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I33" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J33" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="M33" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N33" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O33" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="P33" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="Q33" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R33" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>199533</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E34" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F34" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G34" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H34" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I34" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J34" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="M34" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N34" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O34" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="P34" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="Q34" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R34" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>199534</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E35" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F35" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G35" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H35" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I35" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J35" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="M35" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N35" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O35" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="P35" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="Q35" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R35" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>199535</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E36" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G36" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H36" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I36" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J36" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M36" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N36" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O36" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="P36" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="Q36" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R36" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>199536</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E37" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F37" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G37" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H37" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I37" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J37" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="M37" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N37" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O37" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="P37" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="Q37" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R37" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>199537</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E38" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F38" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G38" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I38" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J38" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="M38" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N38" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O38" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="P38" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="Q38" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R38" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>199538</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E39" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G39" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H39" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I39" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J39" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="M39" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N39" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O39" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="P39" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="Q39" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R39" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>199539</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E40" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F40" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G40" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H40" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I40" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J40" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="M40" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N40" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O40" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="P40" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="Q40" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R40" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>199540</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E41" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F41" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G41" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I41" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J41" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="M41" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N41" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O41" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="P41" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="Q41" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R41" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>199541</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E42" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G42" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H42" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I42" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J42" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="M42" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N42" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O42" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="P42" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="Q42" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R42" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>199542</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E43" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F43" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G43" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H43" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I43" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J43" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="M43" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N43" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O43" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="P43" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="Q43" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R43" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>199543</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D44" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E44" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F44" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G44" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H44" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I44" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J44" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="M44" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N44" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O44" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="P44" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="Q44" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R44" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>199544</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D45" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E45" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F45" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G45" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H45" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I45" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J45" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="M45" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N45" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O45" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="P45" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="Q45" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R45" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>199545</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D46" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E46" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F46" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G46" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H46" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I46" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J46" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="M46" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N46" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O46" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="P46" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="Q46" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R46" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>199546</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E47" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G47" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H47" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I47" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J47" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="M47" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N47" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O47" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="P47" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="Q47" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R47" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>199547</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D48" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E48" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F48" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G48" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H48" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I48" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J48" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M48" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N48" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O48" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="P48" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="Q48" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R48" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>199548</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D49" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E49" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F49" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G49" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H49" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I49" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J49" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="M49" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N49" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O49" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="P49" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="Q49" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R49" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>199549</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D50" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E50" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F50" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G50" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H50" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I50" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J50" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="M50" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N50" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O50" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="P50" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="Q50" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R50" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>199550</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D51" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E51" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F51" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G51" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H51" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I51" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="J51" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="M51" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N51" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O51" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="P51" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="Q51" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R51" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>199551</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D52" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E52" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F52" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G52" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H52" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I52" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J52" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="M52" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N52" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O52" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="P52" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="Q52" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R52" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>199552</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E53" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F53" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G53" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H53" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I53" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J53" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M53" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N53" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O53" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="P53" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="Q53" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R53" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>199553</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D54" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E54" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F54" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G54" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H54" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I54" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J54" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="M54" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N54" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O54" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="P54" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="Q54" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R54" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>199554</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D55" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E55" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F55" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G55" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H55" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I55" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="J55" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="M55" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N55" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O55" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="P55" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="Q55" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R55" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>199555</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D56" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E56" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F56" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G56" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H56" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I56" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J56" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="M56" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N56" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O56" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="P56" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="Q56" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R56" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>199556</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E57" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G57" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H57" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I57" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J57" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="M57" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N57" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O57" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="P57" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="Q57" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R57" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>199557</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D58" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E58" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F58" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G58" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H58" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I58" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="J58" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="M58" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N58" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O58" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="P58" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="Q58" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R58" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>199558</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E59" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F59" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G59" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H59" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I59" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J59" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="M59" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N59" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O59" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="P59" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="Q59" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R59" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>199559</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D60" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E60" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F60" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G60" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H60" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I60" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J60" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="M60" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N60" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O60" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="P60" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="Q60" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R60" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>199560</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D61" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E61" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F61" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G61" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H61" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I61" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J61" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="M61" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N61" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O61" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="P61" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="Q61" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R61" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>199561</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D62" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E62" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F62" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G62" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H62" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I62" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J62" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="M62" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N62" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O62" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="P62" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="Q62" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R62" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>199562</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D63" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E63" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F63" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G63" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H63" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I63" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J63" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="M63" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N63" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O63" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="P63" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="Q63" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R63" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>199563</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E64" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F64" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G64" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H64" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I64" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J64" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="M64" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N64" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O64" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="P64" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="Q64" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R64" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>199564</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D65" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E65" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F65" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G65" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H65" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I65" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J65" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="M65" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N65" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O65" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="P65" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="Q65" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R65" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>199565</v>
       </c>
       <c r="B66" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D66" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E66" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F66" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G66" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H66" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I66" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J66" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="M66" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N66" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O66" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="P66" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="Q66" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R66" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>199566</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D67" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E67" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F67" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G67" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H67" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I67" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J67" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="M67" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N67" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O67" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="P67" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="Q67" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R67" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>199567</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D68" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E68" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F68" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G68" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H68" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I68" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="J68" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="M68" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N68" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O68" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="P68" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="Q68" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R68" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>199568</v>
       </c>
       <c r="B69" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D69" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E69" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F69" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G69" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H69" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I69" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J69" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="M69" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N69" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O69" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="P69" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="Q69" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R69" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>199569</v>
       </c>
       <c r="B70" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D70" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E70" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F70" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G70" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H70" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I70" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J70" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="M70" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N70" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O70" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="P70" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="Q70" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R70" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>199570</v>
       </c>
       <c r="B71" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D71" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E71" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F71" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G71" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H71" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I71" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J71" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="M71" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N71" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O71" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="P71" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="Q71" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R71" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>199571</v>
       </c>
       <c r="B72" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D72" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E72" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F72" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G72" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H72" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I72" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J72" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="M72" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N72" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O72" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="P72" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="Q72" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R72" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>199572</v>
       </c>
       <c r="B73" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D73" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E73" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F73" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G73" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H73" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I73" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J73" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="M73" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N73" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O73" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="P73" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="Q73" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R73" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>199573</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D74" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E74" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F74" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G74" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H74" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I74" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J74" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="M74" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N74" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O74" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="P74" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="Q74" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R74" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>199574</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D75" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E75" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F75" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G75" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H75" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I75" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J75" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="M75" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N75" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O75" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="P75" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="Q75" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R75" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>199575</v>
       </c>
       <c r="B76" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D76" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E76" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F76" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G76" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H76" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I76" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J76" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="M76" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N76" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O76" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="P76" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q76" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R76" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>199576</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D77" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E77" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F77" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G77" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H77" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I77" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J77" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M77" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N77" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O77" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="P77" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="Q77" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="R77" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="L2" r:id="rId2"/>
-    <hyperlink ref="K3" r:id="rId3"/>
-    <hyperlink ref="L3" r:id="rId4"/>
-    <hyperlink ref="K4" r:id="rId5"/>
-    <hyperlink ref="L4" r:id="rId6"/>
-    <hyperlink ref="K5" r:id="rId7"/>
-    <hyperlink ref="L5" r:id="rId8"/>
-    <hyperlink ref="K6" r:id="rId9"/>
-    <hyperlink ref="L6" r:id="rId10"/>
-    <hyperlink ref="K7" r:id="rId11"/>
-    <hyperlink ref="L7" r:id="rId12"/>
-    <hyperlink ref="K8" r:id="rId13"/>
-    <hyperlink ref="L8" r:id="rId14"/>
-    <hyperlink ref="K9" r:id="rId15"/>
-    <hyperlink ref="L9" r:id="rId16"/>
-    <hyperlink ref="K10" r:id="rId17"/>
-    <hyperlink ref="L10" r:id="rId18"/>
-    <hyperlink ref="K11" r:id="rId19"/>
-    <hyperlink ref="L11" r:id="rId20"/>
-    <hyperlink ref="K12" r:id="rId21"/>
-    <hyperlink ref="L12" r:id="rId22"/>
-    <hyperlink ref="K13" r:id="rId23"/>
-    <hyperlink ref="L13" r:id="rId24"/>
-    <hyperlink ref="K14" r:id="rId25"/>
-    <hyperlink ref="L14" r:id="rId26"/>
-    <hyperlink ref="K15" r:id="rId27"/>
-    <hyperlink ref="L15" r:id="rId28"/>
-    <hyperlink ref="K16" r:id="rId29"/>
-    <hyperlink ref="L16" r:id="rId30"/>
-    <hyperlink ref="K17" r:id="rId31"/>
-    <hyperlink ref="L17" r:id="rId32"/>
-    <hyperlink ref="K18" r:id="rId33"/>
-    <hyperlink ref="L18" r:id="rId34"/>
-    <hyperlink ref="K19" r:id="rId35"/>
-    <hyperlink ref="L19" r:id="rId36"/>
-    <hyperlink ref="K20" r:id="rId37"/>
-    <hyperlink ref="L20" r:id="rId38"/>
-    <hyperlink ref="K21" r:id="rId39"/>
-    <hyperlink ref="L21" r:id="rId40"/>
-    <hyperlink ref="K22" r:id="rId41"/>
-    <hyperlink ref="L22" r:id="rId42"/>
-    <hyperlink ref="K23" r:id="rId43"/>
-    <hyperlink ref="L23" r:id="rId44"/>
-    <hyperlink ref="K24" r:id="rId45"/>
-    <hyperlink ref="L24" r:id="rId46"/>
-    <hyperlink ref="K25" r:id="rId47"/>
-    <hyperlink ref="L25" r:id="rId48"/>
-    <hyperlink ref="K26" r:id="rId49"/>
-    <hyperlink ref="L26" r:id="rId50"/>
-    <hyperlink ref="K27" r:id="rId51"/>
-    <hyperlink ref="L27" r:id="rId52"/>
-    <hyperlink ref="K28" r:id="rId53"/>
-    <hyperlink ref="L28" r:id="rId54"/>
-    <hyperlink ref="K29" r:id="rId55"/>
-    <hyperlink ref="L29" r:id="rId56"/>
-    <hyperlink ref="K30" r:id="rId57"/>
-    <hyperlink ref="L30" r:id="rId58"/>
-    <hyperlink ref="K31" r:id="rId59"/>
-    <hyperlink ref="L31" r:id="rId60"/>
-    <hyperlink ref="K32" r:id="rId61"/>
-    <hyperlink ref="L32" r:id="rId62"/>
-    <hyperlink ref="K33" r:id="rId63"/>
-    <hyperlink ref="L33" r:id="rId64"/>
-    <hyperlink ref="K34" r:id="rId65"/>
-    <hyperlink ref="L34" r:id="rId66"/>
-    <hyperlink ref="K35" r:id="rId67"/>
-    <hyperlink ref="L35" r:id="rId68"/>
-    <hyperlink ref="K36" r:id="rId69"/>
-    <hyperlink ref="L36" r:id="rId70"/>
-    <hyperlink ref="K37" r:id="rId71"/>
-    <hyperlink ref="L37" r:id="rId72"/>
-    <hyperlink ref="K38" r:id="rId73"/>
-    <hyperlink ref="L38" r:id="rId74"/>
-    <hyperlink ref="K39" r:id="rId75"/>
-    <hyperlink ref="L39" r:id="rId76"/>
-    <hyperlink ref="K40" r:id="rId77"/>
-    <hyperlink ref="L40" r:id="rId78"/>
-    <hyperlink ref="K41" r:id="rId79"/>
-    <hyperlink ref="L41" r:id="rId80"/>
-    <hyperlink ref="K42" r:id="rId81"/>
-    <hyperlink ref="L42" r:id="rId82"/>
-    <hyperlink ref="K43" r:id="rId83"/>
-    <hyperlink ref="L43" r:id="rId84"/>
-    <hyperlink ref="K44" r:id="rId85"/>
-    <hyperlink ref="L44" r:id="rId86"/>
-    <hyperlink ref="K45" r:id="rId87"/>
-    <hyperlink ref="L45" r:id="rId88"/>
-    <hyperlink ref="K46" r:id="rId89"/>
-    <hyperlink ref="L46" r:id="rId90"/>
-    <hyperlink ref="K47" r:id="rId91"/>
-    <hyperlink ref="L47" r:id="rId92"/>
-    <hyperlink ref="K48" r:id="rId93"/>
-    <hyperlink ref="L48" r:id="rId94"/>
-    <hyperlink ref="K49" r:id="rId95"/>
-    <hyperlink ref="L49" r:id="rId96"/>
-    <hyperlink ref="K50" r:id="rId97"/>
-    <hyperlink ref="L50" r:id="rId98"/>
-    <hyperlink ref="K51" r:id="rId99"/>
-    <hyperlink ref="L51" r:id="rId100"/>
-    <hyperlink ref="K52" r:id="rId101"/>
-    <hyperlink ref="L52" r:id="rId102"/>
-    <hyperlink ref="K53" r:id="rId103"/>
-    <hyperlink ref="L53" r:id="rId104"/>
-    <hyperlink ref="K54" r:id="rId105"/>
-    <hyperlink ref="L54" r:id="rId106"/>
-    <hyperlink ref="K55" r:id="rId107"/>
-    <hyperlink ref="L55" r:id="rId108"/>
-    <hyperlink ref="K56" r:id="rId109"/>
-    <hyperlink ref="L56" r:id="rId110"/>
-    <hyperlink ref="K57" r:id="rId111"/>
-    <hyperlink ref="L57" r:id="rId112"/>
-    <hyperlink ref="K58" r:id="rId113"/>
-    <hyperlink ref="L58" r:id="rId114"/>
-    <hyperlink ref="K59" r:id="rId115"/>
-    <hyperlink ref="L59" r:id="rId116"/>
-    <hyperlink ref="K60" r:id="rId117"/>
-    <hyperlink ref="L60" r:id="rId118"/>
-    <hyperlink ref="K61" r:id="rId119"/>
-    <hyperlink ref="L61" r:id="rId120"/>
-    <hyperlink ref="K62" r:id="rId121"/>
-    <hyperlink ref="L62" r:id="rId122"/>
-    <hyperlink ref="K63" r:id="rId123"/>
-    <hyperlink ref="L63" r:id="rId124"/>
-    <hyperlink ref="K64" r:id="rId125"/>
-    <hyperlink ref="L64" r:id="rId126"/>
-    <hyperlink ref="K65" r:id="rId127"/>
-    <hyperlink ref="L65" r:id="rId128"/>
-    <hyperlink ref="K66" r:id="rId129"/>
-    <hyperlink ref="L66" r:id="rId130"/>
-    <hyperlink ref="K67" r:id="rId131"/>
-    <hyperlink ref="L67" r:id="rId132"/>
-    <hyperlink ref="K68" r:id="rId133"/>
-    <hyperlink ref="L68" r:id="rId134"/>
-    <hyperlink ref="K69" r:id="rId135"/>
-    <hyperlink ref="L69" r:id="rId136"/>
-    <hyperlink ref="K70" r:id="rId137"/>
-    <hyperlink ref="L70" r:id="rId138"/>
-    <hyperlink ref="K71" r:id="rId139"/>
-    <hyperlink ref="L71" r:id="rId140"/>
-    <hyperlink ref="K72" r:id="rId141"/>
-    <hyperlink ref="L72" r:id="rId142"/>
-    <hyperlink ref="K73" r:id="rId143"/>
-    <hyperlink ref="L73" r:id="rId144"/>
-    <hyperlink ref="K74" r:id="rId145"/>
-    <hyperlink ref="L74" r:id="rId146"/>
-    <hyperlink ref="K75" r:id="rId147"/>
-    <hyperlink ref="L75" r:id="rId148"/>
-    <hyperlink ref="K76" r:id="rId149"/>
-    <hyperlink ref="L76" r:id="rId150"/>
-    <hyperlink ref="K77" r:id="rId151"/>
-    <hyperlink ref="L77" r:id="rId152"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="L4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="L5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="L6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="L7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="K8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="L8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="K9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="L9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="K10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="L10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="K11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="L11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="K12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="L12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="K13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="L13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="K14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="L14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="K15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="L15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="K16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="L16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="K17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="L17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="K18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="L18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="K19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="L19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="K20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="L20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="K21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="L21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="K22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="L22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="K23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="L23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="K24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="L24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="K25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="L25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="K26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="L26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="K27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="L27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="K28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="L28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="K29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="L29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="K30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="L30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="K31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="L31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="K32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="L32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="K33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="L33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="K34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="L34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="K35" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="L35" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="K36" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="L36" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="K37" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="L37" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="K38" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="L38" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="K39" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="L39" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="K40" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="L40" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="K41" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="L41" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="K42" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="L42" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="K43" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="L43" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="K44" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="L44" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="K45" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="L45" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="K46" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="L46" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="K47" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="L47" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="K48" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="L48" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="K49" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="L49" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="K50" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="L50" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="K51" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="L51" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="K52" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="L52" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="K53" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="L53" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="K54" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="L54" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="K55" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="L55" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="K56" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="L56" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="K57" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="L57" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="K58" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="L58" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="K59" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="L59" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="K60" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="L60" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="K61" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="L61" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="K62" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="L62" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="K63" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="L63" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="K64" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="L64" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="K65" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="L65" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="K66" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="L66" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="K67" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="L67" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="K68" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="L68" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="K69" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="L69" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="K70" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="L70" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="K71" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="L71" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="K72" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="L72" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="K73" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="L73" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="K74" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="L74" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="K75" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="L75" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="K76" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="L76" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="K77" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="L77" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
